--- a/biology/Botanique/Rosa_omeiensis_f._pteracantha/Rosa_omeiensis_f._pteracantha.xlsx
+++ b/biology/Botanique/Rosa_omeiensis_f._pteracantha/Rosa_omeiensis_f._pteracantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Rosa omeiensis f. pteracantha, noté aussi comme Rosa omeiensis 'Pteracantha' (Franch.) Rehd. &amp; Wils., est un rosier botanique de la section des Pimpinellifoliae (pimprenelle) introduit en France du Setchouan occidental (en Chine) par le Père Delavay avant 1890.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier est une forme ou une variété de Rosa omeiensis Rolfe. Il s'agit d'un arbuste au port érigé pouvant atteindre 2 m de hauteur, voire plus de 3 m[3], pour une largeur d'1,85 cm, aux petites feuilles de 7, 9 ou 11 folioles. Fleurissant au mois de mai, ses petites fleurs (2,5 cm à 3,5 cm de diamètre) légèrement parfumées sont simples et blanches, présentant le plus souvent quatre pétales au lieu de cinq[4]. À l'automne, elles ont la particularité de laisser la place à de longs fruits turbinés de couleur rouge orangé. La variété 'Pteracantha' se distingue par ses grands aiguillons rouges et translucides lorsqu'ils sont jeunes[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier est une forme ou une variété de Rosa omeiensis Rolfe. Il s'agit d'un arbuste au port érigé pouvant atteindre 2 m de hauteur, voire plus de 3 m, pour une largeur d'1,85 cm, aux petites feuilles de 7, 9 ou 11 folioles. Fleurissant au mois de mai, ses petites fleurs (2,5 cm à 3,5 cm de diamètre) légèrement parfumées sont simples et blanches, présentant le plus souvent quatre pétales au lieu de cinq. À l'automne, elles ont la particularité de laisser la place à de longs fruits turbinés de couleur rouge orangé. La variété 'Pteracantha' se distingue par ses grands aiguillons rouges et translucides lorsqu'ils sont jeunes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le père Delavay, missionnaire au Setchouan occidental, récolte plusieurs spécimens en fleurs au cours de deux expéditions en montagne, l'une en avril 1884 et l'autre en mai 1886, entre 2 500 mètres et 2 800 mètres d'altitude[4]. Il les envoie par bateau à Paris à Adrien Franchet du Muséum d'histoire naturelle qui en écrit la description. Les graines sont rapidement cultivées par la maison Vilmorin dans son domaine des Barres avant d'être commercialisées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le père Delavay, missionnaire au Setchouan occidental, récolte plusieurs spécimens en fleurs au cours de deux expéditions en montagne, l'une en avril 1884 et l'autre en mai 1886, entre 2 500 mètres et 2 800 mètres d'altitude. Il les envoie par bateau à Paris à Adrien Franchet du Muséum d'histoire naturelle qui en écrit la description. Les graines sont rapidement cultivées par la maison Vilmorin dans son domaine des Barres avant d'être commercialisées.
 </t>
         </is>
       </c>
